--- a/batch_update_file_preparation/institute_url_set_REVERSED.xlsx
+++ b/batch_update_file_preparation/institute_url_set_REVERSED.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\British Library\bl github group\bl_github_clones\idp-data-issues\batch_update_file_preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FBAFCA-F15E-49EB-8AAA-AF4EA40DD693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A771D464-2E49-4F7E-AFB4-FC514B07BBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8316" yWindow="5760" windowWidth="17328" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="4476" windowWidth="10068" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="institue_url_changes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1139,7 +1152,7 @@
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1147,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1265,7 +1278,7 @@
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
